--- a/articles/course_docs/Fall_2022_schedule.xlsx
+++ b/articles/course_docs/Fall_2022_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Github/cognition/vignettes/course_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Github/cognition/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AF855D-8DF6-A64E-96F4-BDB419EC23AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797436B7-E02E-5B45-83A8-1C0B755557F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35260" yWindow="-3820" windowWidth="23940" windowHeight="26660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11920" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>Week</t>
   </si>
@@ -132,9 +132,6 @@
     <t>M 12/12/22</t>
   </si>
   <si>
-    <t>Review</t>
-  </si>
-  <si>
     <t>**FINAL Assessment**</t>
   </si>
   <si>
@@ -180,16 +177,31 @@
     <t xml:space="preserve">[Judgment and Decision Making](https://crumplab.com/cognition/articles/modules/L12_JDM.html) </t>
   </si>
   <si>
-    <t>(Reading on Blackboard)</t>
-  </si>
-  <si>
-    <t>Online Experiment</t>
-  </si>
-  <si>
     <t>M 10/3/22</t>
   </si>
   <si>
     <t>W 10/12/22</t>
+  </si>
+  <si>
+    <t>W 12/21/22</t>
+  </si>
+  <si>
+    <t>1-3pm</t>
+  </si>
+  <si>
+    <t>Review (LAST CLASS)</t>
+  </si>
+  <si>
+    <t>M 12/19/22</t>
+  </si>
+  <si>
+    <t>Midnight</t>
+  </si>
+  <si>
+    <t>ALL COURSEWORK DUE</t>
+  </si>
+  <si>
+    <t>[Instance Theory &amp; Minerva](https://crumplab.com/cognition/articles/modules/L10B_Instance_Theory.html)</t>
   </si>
 </sst>
 </file>
@@ -511,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFB30"/>
+  <dimension ref="A1:XFB31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8785,7 +8797,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -8799,7 +8811,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -8825,7 +8837,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -8839,7 +8851,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -8853,7 +8865,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -8865,7 +8877,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>19</v>
@@ -8879,7 +8891,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
@@ -8894,7 +8906,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
@@ -8908,7 +8920,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>22</v>
@@ -8922,10 +8934,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -8936,10 +8948,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
@@ -8950,27 +8962,27 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -8981,21 +8993,40 @@
         <v>33</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>16</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="C21" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E30" s="1"/>
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/articles/course_docs/Fall_2022_schedule.xlsx
+++ b/articles/course_docs/Fall_2022_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Github/cognition/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797436B7-E02E-5B45-83A8-1C0B755557F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4462B1A-EB6C-CC4F-BBE4-BC869A1666BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11920" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
